--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.883999999999907</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1231,36 +1186,9 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,36 +1202,9 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,36 +1218,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.03636363636377</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>70.85311702887465</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,28 +1566,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>26.98312417100301</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.03636363636377</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.85311702887465</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2016,28 +1890,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>26.98312417100301</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.516000000000095</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.690909090909</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252524</v>
+        <v>168.9939393939393</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939393</v>
+        <v>155.8626262626261</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.731313131313</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.4699999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>169.236</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>189.828</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>212.994</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>259.326</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>321.102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>467.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>529.596</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>583.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>640.4080808080807</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929292</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262625</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383837</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131312</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191918</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939393</v>
+        <v>182.1252525252524</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282827</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969696</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>170.7839999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>170.7839999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>253.1519999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>345.8159999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>345.8159999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.2205858585858</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>462.2925858585858</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>485.4585858585858</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>485.4585858585858</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585858</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353534</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474746</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474746</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535352</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626261</v>
+        <v>168.9939393939393</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969696</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969696</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969696</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>139.8959999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>181.0799999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>253.1519999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>253.1519999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>279.8652929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>351.9372929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.9372929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161615</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.883999999999907</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.03999999996</v>
+        <v>76271.0624</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9411.486120643642</v>
+        <v>9300.638068405267</v>
       </c>
       <c r="E2" t="n">
         <v>10370</v>
       </c>
       <c r="F2" t="n">
-        <v>50986.08457599669</v>
+        <v>50991.37327170695</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1406,10 @@
         <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>40.03636363636377</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>50.43636363636368</v>
       </c>
       <c r="J2" t="n">
         <v>62.4</v>
@@ -1492,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>70.85311702887465</v>
+        <v>47.45311702887471</v>
       </c>
       <c r="O3" t="n">
         <v>72.8</v>
@@ -1510,7 +1510,7 @@
         <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>26.98312417100301</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>27.03636363636377</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>19.23636363636368</v>
       </c>
       <c r="J2" t="n">
         <v>23.4</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>44.85311702887465</v>
+        <v>21.45311702887471</v>
       </c>
       <c r="O3" t="n">
         <v>72.8</v>
@@ -1834,7 +1834,7 @@
         <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1890,28 +1890,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>26.98312417100301</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
         <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>29.58312417100299</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.516000000000095</v>
+        <v>7.515999999999954</v>
       </c>
       <c r="T2" t="n">
         <v>31.2</v>
@@ -2360,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.690909090909</v>
+        <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939393</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626261</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>142.731313131313</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
         <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>142.4699999999999</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>169.236</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
         <v>189.828</v>
@@ -2411,25 +2411,25 @@
         <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080807</v>
+        <v>640.4080808080809</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929292</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
         <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262625</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383837</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131312</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191918</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,19 +2437,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252524</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282827</v>
+        <v>162.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
         <v>129.6</v>
@@ -2458,55 +2458,55 @@
         <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>170.7839999999999</v>
+        <v>170.784</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7839999999999</v>
+        <v>170.784</v>
       </c>
       <c r="K3" t="n">
-        <v>253.1519999999999</v>
+        <v>170.784</v>
       </c>
       <c r="L3" t="n">
-        <v>345.8159999999999</v>
+        <v>263.448</v>
       </c>
       <c r="M3" t="n">
-        <v>345.8159999999999</v>
+        <v>343.242</v>
       </c>
       <c r="N3" t="n">
-        <v>390.2205858585858</v>
+        <v>364.4805858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>462.2925858585858</v>
+        <v>436.5525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>485.4585858585858</v>
+        <v>459.7185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.4585858585858</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585858</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484848</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353534</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474746</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474746</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535352</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,19 +2514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939393</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969696</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
         <v>129.6</v>
@@ -2538,25 +2538,25 @@
         <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>139.8959999999999</v>
+        <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>181.0799999999999</v>
+        <v>129.6</v>
       </c>
       <c r="L4" t="n">
-        <v>253.1519999999999</v>
+        <v>129.6</v>
       </c>
       <c r="M4" t="n">
-        <v>253.1519999999999</v>
+        <v>188.802</v>
       </c>
       <c r="N4" t="n">
-        <v>279.8652929292929</v>
+        <v>271.17</v>
       </c>
       <c r="O4" t="n">
-        <v>351.9372929292929</v>
+        <v>343.242</v>
       </c>
       <c r="P4" t="n">
-        <v>351.9372929292929</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="Q4" t="n">
         <v>372.5292929292929</v>
@@ -2568,19 +2568,19 @@
         <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161615</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161615</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161615</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161615</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161615</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
         <v>201.8222222222222</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.884000000000047</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.0624</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9300.638068405267</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>10370</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>50991.37327170695</v>
+        <v>55335.53700017744</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.43636363636368</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1495,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>47.45311702887471</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>29.58312417100299</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>19.23636363636368</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>58.4</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>100.2342720130611</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>43</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>21.45311702887471</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>35.23079277624772</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>75.38312417100188</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>29.58312417100299</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.515999999999954</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>189.828</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>212.994</v>
+        <v>344.928</v>
       </c>
       <c r="K2" t="n">
-        <v>259.326</v>
+        <v>344.928</v>
       </c>
       <c r="L2" t="n">
-        <v>321.102</v>
+        <v>402.744</v>
       </c>
       <c r="M2" t="n">
-        <v>390.6</v>
+        <v>501.9759292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>467.82</v>
+        <v>501.9759292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>529.596</v>
+        <v>501.9759292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>583.65</v>
+        <v>501.9759292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.982</v>
+        <v>544.5459292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080809</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>170.784</v>
+        <v>159.6</v>
       </c>
       <c r="J3" t="n">
-        <v>170.784</v>
+        <v>219</v>
       </c>
       <c r="K3" t="n">
-        <v>170.784</v>
+        <v>219</v>
       </c>
       <c r="L3" t="n">
-        <v>263.448</v>
+        <v>219</v>
       </c>
       <c r="M3" t="n">
-        <v>343.242</v>
+        <v>219</v>
       </c>
       <c r="N3" t="n">
-        <v>364.4805858585859</v>
+        <v>367.5</v>
       </c>
       <c r="O3" t="n">
-        <v>436.5525858585859</v>
+        <v>402.3784848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>459.7185858585859</v>
+        <v>402.3784848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.4585858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6</v>
+        <v>194.6292929292919</v>
       </c>
       <c r="K4" t="n">
-        <v>129.6</v>
+        <v>234.2292929292919</v>
       </c>
       <c r="L4" t="n">
-        <v>129.6</v>
+        <v>234.2292929292919</v>
       </c>
       <c r="M4" t="n">
-        <v>188.802</v>
+        <v>234.2292929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>271.17</v>
+        <v>234.2292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>343.242</v>
+        <v>234.2292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>372.5292929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>372.5292929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3442,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>35.23079277624772</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>34.53427201306111</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.884000000000047</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.38312417100188</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>55335.53700017744</v>
+        <v>51915.03718374025</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>51.18312417100189</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>58.4</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>100.2342720130611</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>43</v>
+        <v>73.53427201306106</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>35.23079277624772</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>8.230792776247645</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>75.38312417100188</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.78312417100189</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>344.928</v>
+        <v>260.184</v>
       </c>
       <c r="K2" t="n">
-        <v>344.928</v>
+        <v>281.568</v>
       </c>
       <c r="L2" t="n">
-        <v>402.744</v>
+        <v>314.832</v>
       </c>
       <c r="M2" t="n">
-        <v>501.9759292929305</v>
+        <v>352.254</v>
       </c>
       <c r="N2" t="n">
-        <v>501.9759292929305</v>
+        <v>393.834</v>
       </c>
       <c r="O2" t="n">
-        <v>501.9759292929305</v>
+        <v>423.534</v>
       </c>
       <c r="P2" t="n">
-        <v>501.9759292929305</v>
+        <v>449.076</v>
       </c>
       <c r="Q2" t="n">
-        <v>544.5459292929305</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929305</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>219</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>219</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>219</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>219</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>367.5</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>402.3784848484852</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>402.3784848484852</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>194.6292929292919</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>234.2292929292919</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>234.2292929292919</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>234.2292929292919</v>
+        <v>221.5572929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>234.2292929292919</v>
+        <v>275.4132929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>234.2292929292919</v>
+        <v>322.5372929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>349.4652929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>51.93427201306106</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3675,40 +3675,40 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35.23079277624772</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34.53427201306111</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.2307927762476449</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.38312417100188</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976702785463</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8200</v>
       </c>
       <c r="F2" t="n">
-        <v>51915.03718374021</v>
+        <v>-7387.387387387386</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2144,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>137.9342720130537</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.83079277624766</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2468,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.7979797979801</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1010101010111</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>146.9696969696973</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>133.8383838383834</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>120.7070707070695</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4490707070695</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>140.5070707070695</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>191.5910707070724</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>193.3730707070724</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>214.7570707070724</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>326.4290707070767</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>462.9839999999999</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>504.5639999999999</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>534.2639999999999</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>559.8059999999999</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>581.1899999999999</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>581.3879999999999</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>588.516</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>481.8181818181826</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>383.3333333333333</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>304.5454545454545</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>252.0202020202026</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.6262626262628</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>8</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>8</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100.1342720130537</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3699,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2307927762476609</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3711,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3928,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3937,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8200</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>-7387.387387387386</v>
+        <v>51915.03718374025</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>51.18312417100189</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>73.53427201306106</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8.230792776247645</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.78312417100189</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>260.184</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>281.568</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>314.832</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>352.254</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>393.834</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>423.534</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>449.076</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>221.5572929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>275.4132929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>322.5372929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>349.4652929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>8</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>51.93427201306106</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.2307927762476449</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1132,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177228</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>51915.03718374025</v>
+        <v>49006.54895942778</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>51.18312417100189</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>22.6</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>111.3342720130612</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>74.7</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>58.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.53427201306106</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4.230792776247694</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>99</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>85.7</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>77</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.230792776247645</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>27.78312417100189</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>62</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.3831241710018</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>202.368</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>224.742</v>
       </c>
       <c r="J2" t="n">
-        <v>260.184</v>
+        <v>224.742</v>
       </c>
       <c r="K2" t="n">
-        <v>281.568</v>
+        <v>274.242</v>
       </c>
       <c r="L2" t="n">
-        <v>314.832</v>
+        <v>384.4629292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>352.254</v>
+        <v>458.4159292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>393.834</v>
+        <v>458.4159292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>423.534</v>
+        <v>458.4159292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>449.076</v>
+        <v>516.1329292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>124.1884848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>130.1284848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>138.0484848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>236.0584848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>320.9014848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>320.9014848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>397.1314848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>422.1784848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>422.1784848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>201.18</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>205.14</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>212.07</v>
       </c>
       <c r="M4" t="n">
-        <v>221.5572929292919</v>
+        <v>212.07</v>
       </c>
       <c r="N4" t="n">
-        <v>275.4132929292919</v>
+        <v>219.99</v>
       </c>
       <c r="O4" t="n">
-        <v>322.5372929292918</v>
+        <v>226.92</v>
       </c>
       <c r="P4" t="n">
-        <v>349.4652929292918</v>
+        <v>230.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>292.26</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.93427201306106</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>40.3831241710018</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,40 +3675,40 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762476938</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3764,25 +3764,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.93427201306119</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>10.2</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2307927762476449</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>21.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.7479999999832927</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>80569.32880399897</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177228</v>
+        <v>15427.76107664258</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9095</v>
       </c>
       <c r="F2" t="n">
-        <v>49006.54895942778</v>
+        <v>50492.40335797872</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,37 +2052,37 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>111.3342720130612</v>
+        <v>103.2</v>
       </c>
       <c r="M2" t="n">
-        <v>74.7</v>
+        <v>116.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>38.50909090909082</v>
       </c>
       <c r="P2" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.230792776247694</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>105.6571574329154</v>
       </c>
       <c r="L3" t="n">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>77</v>
+        <v>33.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>14.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>21.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>62</v>
+        <v>5.78312417100183</v>
       </c>
       <c r="R4" t="n">
-        <v>71.3831241710018</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.65200000001671</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>210.2909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>190.5939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>177.4626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>164.3313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>175.059</v>
       </c>
       <c r="H2" t="n">
-        <v>202.368</v>
+        <v>229.212</v>
       </c>
       <c r="I2" t="n">
-        <v>224.742</v>
+        <v>250.7940000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>224.742</v>
+        <v>283.7610000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>274.242</v>
+        <v>370.4850000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>384.4629292929305</v>
+        <v>472.6530000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>458.4159292929305</v>
+        <v>587.5920000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>458.4159292929305</v>
+        <v>715.3020000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>458.4159292929305</v>
+        <v>753.426</v>
       </c>
       <c r="P2" t="n">
-        <v>516.1329292929305</v>
+        <v>753.426</v>
       </c>
       <c r="Q2" t="n">
-        <v>565.6329292929305</v>
+        <v>756</v>
       </c>
       <c r="R2" t="n">
-        <v>565.6329292929305</v>
+        <v>756</v>
       </c>
       <c r="S2" t="n">
-        <v>565.6329292929305</v>
+        <v>717.010101010119</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>630.4929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>512.3111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>413.8262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.038383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>282.5131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.1191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>412.6666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>392.9696969696965</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>379.8383838383827</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>379.8383838383827</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>379.8383838383827</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>360.1414141414137</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>360.1414141414137</v>
       </c>
       <c r="I3" t="n">
-        <v>124.1884848484852</v>
+        <v>379.1494141414137</v>
       </c>
       <c r="J3" t="n">
-        <v>130.1284848484852</v>
+        <v>391.0294141414137</v>
       </c>
       <c r="K3" t="n">
-        <v>138.0484848484852</v>
+        <v>495.6299999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>236.0584848484852</v>
+        <v>664.92</v>
       </c>
       <c r="M3" t="n">
-        <v>320.9014848484852</v>
+        <v>664.92</v>
       </c>
       <c r="N3" t="n">
-        <v>320.9014848484852</v>
+        <v>664.92</v>
       </c>
       <c r="O3" t="n">
-        <v>397.1314848484852</v>
+        <v>698.184</v>
       </c>
       <c r="P3" t="n">
-        <v>422.1784848484852</v>
+        <v>698.184</v>
       </c>
       <c r="Q3" t="n">
-        <v>422.1784848484852</v>
+        <v>741.744</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>756</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>694.989898989899</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>563.6767676767677</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>563.6767676767677</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>563.6767676767677</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>484.8888888888889</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>484.8888888888889</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>445.4949494949483</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>190.5939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="J4" t="n">
-        <v>201.18</v>
+        <v>172.782</v>
       </c>
       <c r="K4" t="n">
-        <v>205.14</v>
+        <v>180.702</v>
       </c>
       <c r="L4" t="n">
-        <v>212.07</v>
+        <v>194.562</v>
       </c>
       <c r="M4" t="n">
-        <v>212.07</v>
+        <v>194.562</v>
       </c>
       <c r="N4" t="n">
-        <v>219.99</v>
+        <v>345.042</v>
       </c>
       <c r="O4" t="n">
-        <v>226.92</v>
+        <v>358.902</v>
       </c>
       <c r="P4" t="n">
-        <v>230.88</v>
+        <v>366.8220000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.26</v>
+        <v>372.5472929292919</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>223.4222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,31 +3348,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.90909090909082</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3381,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>67.25715743291536</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3452,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.3831241710018</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762476938</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>99.09999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,22 +3996,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>44.93427201306119</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4023,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,37 +4079,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>1.783124171001829</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7479999999832927</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.69387999999933</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.32880399897</v>
+        <v>80328.5330847545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15427.76107664258</v>
+        <v>19145.74857967063</v>
       </c>
       <c r="E2" t="n">
-        <v>9095</v>
+        <v>9790</v>
       </c>
       <c r="F2" t="n">
-        <v>50492.40335797872</v>
+        <v>46299.80586043591</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>49.99726558514364</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>7.400000000000729</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>17.4</v>
       </c>
       <c r="I2" t="n">
-        <v>21.8</v>
+        <v>6.799999999999272</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="L2" t="n">
-        <v>103.2</v>
+        <v>40.00000000000073</v>
       </c>
       <c r="M2" t="n">
-        <v>116.1</v>
+        <v>45.00000000000037</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>38.50909090909082</v>
+        <v>37.19999999999928</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>32.19999999999964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>27.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.200000000000728</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52.60000000000036</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.99726558514364</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.399999999999636</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
-        <v>105.6571574329154</v>
-      </c>
-      <c r="L3" t="n">
-        <v>171</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>44</v>
-      </c>
       <c r="R3" t="n">
-        <v>14.4</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.40000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.78312417100183</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>22.2</v>
       </c>
       <c r="T2" t="n">
-        <v>85.65200000001671</v>
+        <v>73.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>43.80612000000066</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>47.59999999999927</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.2909090909106</v>
+        <v>261.2059393939387</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393939416</v>
+        <v>261.2059393939387</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262626278</v>
+        <v>248.0746262626256</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131313139</v>
+        <v>234.9433131313124</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>221.8119999999993</v>
       </c>
       <c r="G2" t="n">
-        <v>175.059</v>
+        <v>229.138</v>
       </c>
       <c r="H2" t="n">
-        <v>229.212</v>
+        <v>246.364</v>
       </c>
       <c r="I2" t="n">
-        <v>250.7940000000001</v>
+        <v>253.0959999999993</v>
       </c>
       <c r="J2" t="n">
-        <v>283.7610000000001</v>
+        <v>259.6299999999993</v>
       </c>
       <c r="K2" t="n">
-        <v>370.4850000000001</v>
+        <v>286.5579999999993</v>
       </c>
       <c r="L2" t="n">
-        <v>472.6530000000001</v>
+        <v>326.158</v>
       </c>
       <c r="M2" t="n">
-        <v>587.5920000000001</v>
+        <v>370.7080000000004</v>
       </c>
       <c r="N2" t="n">
-        <v>715.3020000000001</v>
+        <v>420.2080000000004</v>
       </c>
       <c r="O2" t="n">
-        <v>753.426</v>
+        <v>457.0359999999997</v>
       </c>
       <c r="P2" t="n">
-        <v>753.426</v>
+        <v>488.9139999999993</v>
       </c>
       <c r="Q2" t="n">
-        <v>756</v>
+        <v>515.8419999999993</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>520</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010119</v>
+        <v>497.5757575757576</v>
       </c>
       <c r="T2" t="n">
-        <v>630.4929292929304</v>
+        <v>423.6363636363636</v>
       </c>
       <c r="U2" t="n">
-        <v>512.3111111111111</v>
+        <v>305.4545454545454</v>
       </c>
       <c r="V2" t="n">
-        <v>413.8262626262645</v>
+        <v>261.2059393939387</v>
       </c>
       <c r="W2" t="n">
-        <v>335.038383838385</v>
+        <v>261.2059393939387</v>
       </c>
       <c r="X2" t="n">
-        <v>282.5131313131332</v>
+        <v>261.2059393939387</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919191934</v>
+        <v>261.2059393939387</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>412.6666666666667</v>
+        <v>156.5252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>392.9696969696965</v>
+        <v>136.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>379.8383838383827</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>379.8383838383827</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>379.8383838383827</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>360.1414141414137</v>
+        <v>104</v>
       </c>
       <c r="H3" t="n">
-        <v>360.1414141414137</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>379.1494141414137</v>
+        <v>134.096</v>
       </c>
       <c r="J3" t="n">
-        <v>391.0294141414137</v>
+        <v>179.24</v>
       </c>
       <c r="K3" t="n">
-        <v>495.6299999999999</v>
+        <v>239.432</v>
       </c>
       <c r="L3" t="n">
-        <v>664.92</v>
+        <v>307.148</v>
       </c>
       <c r="M3" t="n">
-        <v>664.92</v>
+        <v>359.2220000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>664.92</v>
+        <v>393.6740000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>698.184</v>
+        <v>443.1712929292926</v>
       </c>
       <c r="P3" t="n">
-        <v>698.184</v>
+        <v>452.4772929292922</v>
       </c>
       <c r="Q3" t="n">
-        <v>741.744</v>
+        <v>464.3572929292922</v>
       </c>
       <c r="R3" t="n">
-        <v>756</v>
+        <v>486.9292929292922</v>
       </c>
       <c r="S3" t="n">
-        <v>694.989898989899</v>
+        <v>438.8484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>563.6767676767677</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>563.6767676767677</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>563.6767676767677</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>484.8888888888889</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>484.8888888888889</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>445.4949494949483</v>
+        <v>189.3535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393939379</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="J4" t="n">
-        <v>172.782</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>180.702</v>
+        <v>134.096</v>
       </c>
       <c r="L4" t="n">
-        <v>194.562</v>
+        <v>186.764</v>
       </c>
       <c r="M4" t="n">
-        <v>194.562</v>
+        <v>223.7900000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>345.042</v>
+        <v>283.9820000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>358.902</v>
+        <v>336.6500000000004</v>
       </c>
       <c r="P4" t="n">
-        <v>366.8220000000001</v>
+        <v>346.929292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>372.5472929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222222222</v>
+        <v>176.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,31 +3348,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.90909090909082</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25715743291536</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3452,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,34 +4079,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.783124171001829</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>9992.976702785463</v>
       </c>
       <c r="E2" t="n">
         <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>51915.03718374025</v>
+        <v>51915.03718374021</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1900,7 +2150,7 @@
         <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>51.18312417100189</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
         <v>54.4</v>
@@ -1912,7 +2162,7 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,25 +2302,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
         <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>51.6</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>112.8</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>137.9342720130537</v>
       </c>
       <c r="N2" t="n">
         <v>42</v>
@@ -2082,16 +2332,16 @@
         <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.53427201306106</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
         <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2153,13 +2403,13 @@
         <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>47.83079277624766</v>
       </c>
       <c r="P3" t="n">
         <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.230792776247645</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
         <v>20.4</v>
@@ -2224,7 +2474,7 @@
         <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>27.78312417100189</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
         <v>54.4</v>
@@ -2236,7 +2486,7 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2685,76 +2935,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.7979797979801</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>160.1010101010111</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.9696969696973</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.8383838383834</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>120.7070707070695</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>126.4490707070695</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>140.5070707070695</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>191.5910707070724</v>
       </c>
       <c r="J2" t="n">
-        <v>260.184</v>
+        <v>193.3730707070724</v>
       </c>
       <c r="K2" t="n">
-        <v>281.568</v>
+        <v>214.7570707070724</v>
       </c>
       <c r="L2" t="n">
-        <v>314.832</v>
+        <v>326.4290707070767</v>
       </c>
       <c r="M2" t="n">
-        <v>352.254</v>
+        <v>462.9839999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>393.834</v>
+        <v>504.5639999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>423.534</v>
+        <v>534.2639999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>449.076</v>
+        <v>559.8059999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>581.1899999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>581.3879999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>588.516</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>600</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>481.8181818181826</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>304.5454545454545</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>252.0202020202026</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>212.6262626262628</v>
       </c>
     </row>
     <row r="3">
@@ -2801,10 +3051,10 @@
         <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
         <v>434.6524848484852</v>
@@ -2872,16 +3122,16 @@
         <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>221.5572929292919</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>275.4132929292919</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>322.5372929292918</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>349.4652929292918</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
         <v>362.9292929292918</v>
@@ -3366,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>100.1342720130537</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3378,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.93427201306106</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2307927762476609</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3461,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,22 +3922,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3708,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4103,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2307927762476449</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>236.2537743867582</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>185.3039999984229</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -576,25 +574,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>120.0100000002571</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7479999999301132</v>
+        <v>240</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.32880399789</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15427.76107664069</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9095</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50492.40335797947</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +824,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>5323</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.5910000000147</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1912.52400000003</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3153.630000000059</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3926.778000000059</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4038.681000000059</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3560.55</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>2675.499000000059</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1607.33400000003</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>640.8990000000147</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.34600000000046</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.1900000000073</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5969.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>5513.766000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>2120.981984894731</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.2070000000147</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.69200000000092</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>457.7850000000074</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.8800000000676</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2823.525000000016</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>824.0400000000886</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>850.9200000000957</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6301.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>3485.435266197394</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6262.120000000112</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>2962.150999999512</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2305,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1136.744000000441</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2586.960000003214</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3536.198000000801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3570.376000000788</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4000000004657</v>
+        <v>3000.68000000139</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7</v>
+        <v>1975.874000004289</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>686.6240000014533</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>79.60909090862525</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2385,34 +1893,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5323</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>159.5000000037486</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>109.4</v>
+        <v>4757.766000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>16.45715742914268</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37.49999999999999</v>
+        <v>1448.981984894652</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2459,37 +1967,37 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2017.964999999938</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5323</v>
       </c>
       <c r="L4" t="n">
-        <v>49.98312417081812</v>
+        <v>2505.155266197313</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5323</v>
       </c>
       <c r="N4" t="n">
-        <v>174.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>2036.470999999436</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>821.8100000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>876.1600000000052</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>741.3762256129909</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>357.5359999970265</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1140.543999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1141.459999999996</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>1024</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1289.759999999994</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1139.2</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1226.73999999978</v>
       </c>
       <c r="W2" t="n">
-        <v>77.25200000002334</v>
+        <v>1057.99</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1020.120000000005</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>824.46</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.4599999966239</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220.0779999986263</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.8680000001025</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.219999999913</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.45</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.339999999995</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.979999999961</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.259999999863</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.290909090815</v>
+        <v>7870.123460211919</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393937983</v>
+        <v>6722.386086475307</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262625322</v>
+        <v>5892.274975364942</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131312661</v>
+        <v>5007.264874355825</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>4258.4</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2</v>
+        <v>4258.4</v>
       </c>
       <c r="H2" t="n">
-        <v>151.2</v>
+        <v>5383.776559999221</v>
       </c>
       <c r="I2" t="n">
-        <v>151.2</v>
+        <v>7944.866960001904</v>
       </c>
       <c r="J2" t="n">
-        <v>151.2</v>
+        <v>11445.70298000217</v>
       </c>
       <c r="K2" t="n">
-        <v>151.2</v>
+        <v>14980.37522000242</v>
       </c>
       <c r="L2" t="n">
-        <v>272.376000000461</v>
+        <v>17951.04842000324</v>
       </c>
       <c r="M2" t="n">
-        <v>408.699000000461</v>
+        <v>19907.16368000691</v>
       </c>
       <c r="N2" t="n">
-        <v>560.169000000461</v>
+        <v>20586.92144000618</v>
       </c>
       <c r="O2" t="n">
-        <v>677.187000000461</v>
+        <v>20225.77396526112</v>
       </c>
       <c r="P2" t="n">
-        <v>756</v>
+        <v>19073.7093187959</v>
       </c>
       <c r="Q2" t="n">
-        <v>756</v>
+        <v>17905.7194198065</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>16752.72952081736</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010101</v>
+        <v>15718.38608647462</v>
       </c>
       <c r="T2" t="n">
-        <v>629.7373737373738</v>
+        <v>14415.59820768733</v>
       </c>
       <c r="U2" t="n">
-        <v>511.5555555555086</v>
+        <v>13264.8911369757</v>
       </c>
       <c r="V2" t="n">
-        <v>413.0707070706601</v>
+        <v>12025.75982384537</v>
       </c>
       <c r="W2" t="n">
-        <v>335.0383838383133</v>
+        <v>10957.0830561694</v>
       </c>
       <c r="X2" t="n">
-        <v>282.5131313130137</v>
+        <v>9926.658813745908</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919190979</v>
+        <v>9093.87093495877</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203.7252525252996</v>
+        <v>6147.248484840159</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0282828282828</v>
+        <v>5328.056565647695</v>
       </c>
       <c r="D3" t="n">
-        <v>170.8969696970167</v>
+        <v>4577.046464637066</v>
       </c>
       <c r="E3" t="n">
-        <v>170.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="F3" t="n">
-        <v>170.8969696970167</v>
+        <v>4258.4</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2</v>
+        <v>4258.4</v>
       </c>
       <c r="H3" t="n">
-        <v>151.2</v>
+        <v>4258.4</v>
       </c>
       <c r="I3" t="n">
-        <v>155.16</v>
+        <v>9528.17</v>
       </c>
       <c r="J3" t="n">
-        <v>161.1</v>
+        <v>9528.169999999618</v>
       </c>
       <c r="K3" t="n">
-        <v>169.02</v>
+        <v>9528.169999997794</v>
       </c>
       <c r="L3" t="n">
-        <v>177.93</v>
+        <v>9528.169999997281</v>
       </c>
       <c r="M3" t="n">
-        <v>335.8350000037111</v>
+        <v>9528.169999998467</v>
       </c>
       <c r="N3" t="n">
-        <v>444.1410000037112</v>
+        <v>14238.35833999902</v>
       </c>
       <c r="O3" t="n">
-        <v>460.4335858585624</v>
+        <v>14238.35833999569</v>
       </c>
       <c r="P3" t="n">
-        <v>497.5585858585624</v>
+        <v>15672.85050504078</v>
       </c>
       <c r="Q3" t="n">
-        <v>541.1185858585624</v>
+        <v>15450.5494949435</v>
       </c>
       <c r="R3" t="n">
-        <v>547.0585858585624</v>
+        <v>14549.67272726741</v>
       </c>
       <c r="S3" t="n">
-        <v>486.0484848484614</v>
+        <v>13589.26868686416</v>
       </c>
       <c r="T3" t="n">
-        <v>354.73535353533</v>
+        <v>12474.62222221737</v>
       </c>
       <c r="U3" t="n">
-        <v>354.73535353533</v>
+        <v>11264.01616160636</v>
       </c>
       <c r="V3" t="n">
-        <v>354.73535353533</v>
+        <v>10079.16767675873</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9474747474983</v>
+        <v>8937.955555547729</v>
       </c>
       <c r="X3" t="n">
-        <v>275.9474747474983</v>
+        <v>7950.581818175106</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5535353535824</v>
+        <v>7035.430303022843</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393940335</v>
+        <v>7771.747474739658</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8969696970167</v>
+        <v>6674.5555555492</v>
       </c>
       <c r="D4" t="n">
-        <v>170.8969696970167</v>
+        <v>5642.737373731912</v>
       </c>
       <c r="E4" t="n">
-        <v>170.8969696970167</v>
+        <v>4665.989898985712</v>
       </c>
       <c r="F4" t="n">
-        <v>170.8969696970167</v>
+        <v>4258.464646461669</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>4258.464646462516</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>6256.249996463288</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>6256.24999646266</v>
       </c>
       <c r="J4" t="n">
-        <v>153.18</v>
+        <v>6256.249996462024</v>
       </c>
       <c r="K4" t="n">
-        <v>157.14</v>
+        <v>11526.01999646142</v>
       </c>
       <c r="L4" t="n">
-        <v>206.6232929291099</v>
+        <v>14006.12370999612</v>
       </c>
       <c r="M4" t="n">
-        <v>206.6232929291099</v>
+        <v>19275.89370999418</v>
       </c>
       <c r="N4" t="n">
-        <v>379.2792929293635</v>
+        <v>19275.8937099951</v>
       </c>
       <c r="O4" t="n">
-        <v>386.2092929293635</v>
+        <v>21291.99999999543</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1692929293635</v>
+        <v>21291.99999999689</v>
       </c>
       <c r="Q4" t="n">
-        <v>392.1492929293635</v>
+        <v>20015.89898989677</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929293635</v>
+        <v>18744.9696969686</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929293635</v>
+        <v>17463.0404040404</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616162322</v>
+        <v>16024.06060605997</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616162322</v>
+        <v>14487.71717171526</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616162322</v>
+        <v>12974.32323232249</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616162322</v>
+        <v>11503.16161616053</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616162322</v>
+        <v>10183.03030302847</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222223163</v>
+        <v>8933.717171708327</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000000931</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>122.3999999995809</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6927,19 +6435,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>139.4000000037486</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.457157429142683</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.59999999813735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.98312417081812</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.399999996297993</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7251,25 +6759,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.099999999743886</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7331,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375173.553962237</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>426852.6922872484</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187210</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.39999999953432</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.609090908415709</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.999999999743886</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.40000000025611</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18.40000000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.600000001606531</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>2487487.26277026</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 1.xlsx
+++ b/model/Output Files/Year 1.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,73 +524,73 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>120.0100000000004</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="D2" t="n">
+        <v>120.0099999999948</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120.0100000002157</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>120.0099999967206</v>
+      </c>
+      <c r="P2" t="n">
         <v>240</v>
       </c>
-      <c r="E2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>120.0099999999948</v>
       </c>
-      <c r="F2" t="n">
-        <v>236.2537743867582</v>
-      </c>
-      <c r="G2" t="n">
-        <v>185.3039999984229</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>120.0099999999948</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>120.0100000002571</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>240</v>
+        <v>160.7883227884676</v>
       </c>
       <c r="V2" t="n">
         <v>120.0099999999948</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>240</v>
-      </c>
-      <c r="X2" t="n">
-        <v>120.0099999999948</v>
       </c>
       <c r="Y2" t="n">
         <v>240</v>
@@ -728,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>120.4749999999849</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384782.32645785</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>426180.0239132897</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187615</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2495303.876166271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10173</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.5910000000147</v>
+        <v>683.8020000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1912.52400000003</v>
+        <v>1918.728000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>3153.630000000059</v>
+        <v>3163.86</v>
       </c>
       <c r="J2" t="n">
-        <v>3926.778000000059</v>
+        <v>3939.516000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4038.681000000059</v>
+        <v>4051.782000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3560.55</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2675.499000000059</v>
+        <v>2684.178000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.33400000003</v>
+        <v>1612.548</v>
       </c>
       <c r="O2" t="n">
-        <v>640.8990000000147</v>
+        <v>642.9780000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20.34600000000046</v>
+        <v>20.412</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.1900000000073</v>
+        <v>306.1800000000001</v>
       </c>
       <c r="F3" t="n">
         <v>462</v>
@@ -1569,34 +1686,34 @@
         <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>5969.8</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
         <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>798</v>
+        <v>6103</v>
       </c>
       <c r="L3" t="n">
-        <v>798</v>
+        <v>3745.800306697946</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>5513.766000000001</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>4072.194000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>2120.981984894731</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.2070000000147</v>
+        <v>602.1540000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>40.69200000000092</v>
+        <v>40.82400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,34 +1754,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>457.7850000000074</v>
+        <v>459.2700000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>677.8800000000676</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2823.525000000016</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>824.0400000000886</v>
+        <v>824.0399999998808</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000957</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>6301.6</v>
+        <v>6283.6</v>
       </c>
       <c r="L4" t="n">
-        <v>3485.435266197394</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>6262.120000000112</v>
+        <v>6244.120000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>4811.442747474748</v>
       </c>
       <c r="O4" t="n">
-        <v>2962.150999999512</v>
+        <v>3592.512000000001</v>
       </c>
       <c r="P4" t="n">
         <v>1018.26</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1136.744000000441</v>
+        <v>1165.948</v>
       </c>
       <c r="I2" t="n">
-        <v>2586.960000003214</v>
+        <v>2635.190000003213</v>
       </c>
       <c r="J2" t="n">
-        <v>3536.198000000801</v>
+        <v>3595.936000000801</v>
       </c>
       <c r="K2" t="n">
-        <v>3570.376000000788</v>
+        <v>3631.47700000079</v>
       </c>
       <c r="L2" t="n">
-        <v>3000.68000000139</v>
+        <v>3055.229999998706</v>
       </c>
       <c r="M2" t="n">
-        <v>1975.874000004289</v>
+        <v>2016.553000002045</v>
       </c>
       <c r="N2" t="n">
-        <v>686.6240000014533</v>
+        <v>710.8380000014528</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1849,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.596061676740646e-08</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1893,28 +2010,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5323</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5305</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2947.800306697911</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4757.766000000001</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3332.994000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>1448.981984894652</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1932,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-4.435423761606216e-08</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1949,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1.653097569942474e-08</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1967,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2017.964999999938</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1976,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="L4" t="n">
-        <v>2505.155266197313</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3870.642747474748</v>
       </c>
       <c r="O4" t="n">
-        <v>2036.470999999436</v>
+        <v>2666.832</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2009,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.6065314412117e-08</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1211.51</v>
+        <v>1091.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.26</v>
+        <v>1016.25</v>
       </c>
       <c r="D2" t="n">
-        <v>821.8100000000001</v>
+        <v>941.8</v>
       </c>
       <c r="E2" t="n">
-        <v>876.1600000000052</v>
+        <v>911.1599999997844</v>
       </c>
       <c r="F2" t="n">
-        <v>741.3762256129909</v>
+        <v>977.6299999999137</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>175.0929999981854</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>357.5359999970265</v>
+        <v>348.4570000002062</v>
       </c>
       <c r="P2" t="n">
-        <v>1140.543999999999</v>
+        <v>900.4780000012869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1156.31</v>
+        <v>1191.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1141.459999999996</v>
+        <v>1141.460000000069</v>
       </c>
       <c r="S2" t="n">
         <v>1024</v>
       </c>
       <c r="T2" t="n">
-        <v>1289.759999999994</v>
+        <v>1289.760000025961</v>
       </c>
       <c r="U2" t="n">
-        <v>1139.2</v>
+        <v>1218.411677211533</v>
       </c>
       <c r="V2" t="n">
-        <v>1226.73999999978</v>
+        <v>1226.740000000084</v>
       </c>
       <c r="W2" t="n">
-        <v>1057.99</v>
+        <v>1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1020.120000000005</v>
+        <v>900.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>824.46</v>
+        <v>824.4600000000564</v>
       </c>
     </row>
     <row r="3">
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>315.4599999966239</v>
+        <v>345.4699999959026</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>220.0779999986263</v>
+        <v>245.1309999986263</v>
       </c>
       <c r="R3" t="n">
-        <v>891.8680000001025</v>
+        <v>891.735999999749</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2256,7 +2373,7 @@
         <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1173</v>
+        <v>1172.999999958121</v>
       </c>
       <c r="W3" t="n">
         <v>1129.8</v>
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1150.35</v>
+        <v>1150.349999987096</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.219999999913</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>1001.979999999927</v>
       </c>
       <c r="F4" t="n">
-        <v>403.45</v>
+        <v>396.9649999997055</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,22 +2435,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.339999999995</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.22</v>
+        <v>1258.219999999903</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.11</v>
+        <v>1148.635000000015</v>
       </c>
       <c r="T4" t="n">
         <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1520.979999999961</v>
+        <v>1520.979999999277</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.259999999863</v>
+        <v>1498.260000016065</v>
       </c>
       <c r="W4" t="n">
         <v>1456.45</v>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7870.123460211919</v>
+        <v>8306.558585857087</v>
       </c>
       <c r="C2" t="n">
-        <v>6722.386086475307</v>
+        <v>7280.043434341937</v>
       </c>
       <c r="D2" t="n">
-        <v>5892.274975364942</v>
+        <v>6328.7303030288</v>
       </c>
       <c r="E2" t="n">
-        <v>5007.264874355825</v>
+        <v>5408.366666665382</v>
       </c>
       <c r="F2" t="n">
-        <v>4258.4</v>
+        <v>4420.861616160101</v>
       </c>
       <c r="G2" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="H2" t="n">
-        <v>5383.776559999221</v>
+        <v>5398.28852</v>
       </c>
       <c r="I2" t="n">
-        <v>7944.866960001904</v>
+        <v>8007.126620003181</v>
       </c>
       <c r="J2" t="n">
-        <v>11445.70298000217</v>
+        <v>11567.10326000397</v>
       </c>
       <c r="K2" t="n">
-        <v>14980.37522000242</v>
+        <v>15162.26549000476</v>
       </c>
       <c r="L2" t="n">
-        <v>17951.04842000324</v>
+        <v>18186.94319000348</v>
       </c>
       <c r="M2" t="n">
-        <v>19907.16368000691</v>
+        <v>20183.33066000843</v>
       </c>
       <c r="N2" t="n">
-        <v>20586.92144000618</v>
+        <v>20887.06028000987</v>
       </c>
       <c r="O2" t="n">
-        <v>20225.77396526112</v>
+        <v>20535.08351233289</v>
       </c>
       <c r="P2" t="n">
-        <v>19073.7093187959</v>
+        <v>19625.50977495827</v>
       </c>
       <c r="Q2" t="n">
-        <v>17905.7194198065</v>
+        <v>18422.16634061527</v>
       </c>
       <c r="R2" t="n">
-        <v>16752.72952081736</v>
+        <v>17269.17644162582</v>
       </c>
       <c r="S2" t="n">
-        <v>15718.38608647462</v>
+        <v>16234.83300728341</v>
       </c>
       <c r="T2" t="n">
-        <v>14415.59820768733</v>
+        <v>14932.04512849501</v>
       </c>
       <c r="U2" t="n">
-        <v>13264.8911369757</v>
+        <v>13701.32626262477</v>
       </c>
       <c r="V2" t="n">
-        <v>12025.75982384537</v>
+        <v>12462.19494949346</v>
       </c>
       <c r="W2" t="n">
-        <v>10957.0830561694</v>
+        <v>11151.09393939245</v>
       </c>
       <c r="X2" t="n">
-        <v>9926.658813745908</v>
+        <v>10241.87171717022</v>
       </c>
       <c r="Y2" t="n">
-        <v>9093.87093495877</v>
+        <v>9409.083838382343</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6147.248484840159</v>
+        <v>6163.161616158211</v>
       </c>
       <c r="C3" t="n">
-        <v>5328.056565647695</v>
+        <v>5343.969696966286</v>
       </c>
       <c r="D3" t="n">
-        <v>4577.046464637066</v>
+        <v>4592.959595955797</v>
       </c>
       <c r="E3" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="F3" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="G3" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="H3" t="n">
-        <v>4258.4</v>
+        <v>4244</v>
       </c>
       <c r="I3" t="n">
-        <v>9528.17</v>
+        <v>4244</v>
       </c>
       <c r="J3" t="n">
-        <v>9528.169999999618</v>
+        <v>4244</v>
       </c>
       <c r="K3" t="n">
-        <v>9528.169999997794</v>
+        <v>9495.950000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>9528.169999997281</v>
+        <v>12414.27230363097</v>
       </c>
       <c r="M3" t="n">
-        <v>9528.169999998467</v>
+        <v>12414.27230363097</v>
       </c>
       <c r="N3" t="n">
-        <v>14238.35833999902</v>
+        <v>12414.27230363097</v>
       </c>
       <c r="O3" t="n">
-        <v>14238.35833999569</v>
+        <v>15713.93636363097</v>
       </c>
       <c r="P3" t="n">
-        <v>15672.85050504078</v>
+        <v>15713.93636363097</v>
       </c>
       <c r="Q3" t="n">
-        <v>15450.5494949435</v>
+        <v>15466.32929292494</v>
       </c>
       <c r="R3" t="n">
-        <v>14549.67272726741</v>
+        <v>14565.58585858176</v>
       </c>
       <c r="S3" t="n">
-        <v>13589.26868686416</v>
+        <v>13605.18181817671</v>
       </c>
       <c r="T3" t="n">
-        <v>12474.62222221737</v>
+        <v>12490.53535353032</v>
       </c>
       <c r="U3" t="n">
-        <v>11264.01616160636</v>
+        <v>11279.92929292426</v>
       </c>
       <c r="V3" t="n">
-        <v>10079.16767675873</v>
+        <v>10095.08080807667</v>
       </c>
       <c r="W3" t="n">
-        <v>8937.955555547729</v>
+        <v>8953.868686864615</v>
       </c>
       <c r="X3" t="n">
-        <v>7950.581818175106</v>
+        <v>7966.494949491539</v>
       </c>
       <c r="Y3" t="n">
-        <v>7035.430303022843</v>
+        <v>7051.343434340024</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7771.747474739658</v>
+        <v>7786.08585858586</v>
       </c>
       <c r="C4" t="n">
-        <v>6674.5555555492</v>
+        <v>6688.89393939394</v>
       </c>
       <c r="D4" t="n">
-        <v>5642.737373731912</v>
+        <v>5657.075757575757</v>
       </c>
       <c r="E4" t="n">
-        <v>4665.989898985712</v>
+        <v>4644.974747474622</v>
       </c>
       <c r="F4" t="n">
-        <v>4258.464646461669</v>
+        <v>4244</v>
       </c>
       <c r="G4" t="n">
-        <v>4258.464646462516</v>
+        <v>4244</v>
       </c>
       <c r="H4" t="n">
-        <v>6256.249996463288</v>
+        <v>4244</v>
       </c>
       <c r="I4" t="n">
-        <v>6256.24999646266</v>
+        <v>4244</v>
       </c>
       <c r="J4" t="n">
-        <v>6256.249996462024</v>
+        <v>4244</v>
       </c>
       <c r="K4" t="n">
-        <v>11526.01999646142</v>
+        <v>9495.950000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>14006.12370999612</v>
+        <v>9495.950000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>19275.89370999418</v>
+        <v>14747.9</v>
       </c>
       <c r="N4" t="n">
-        <v>19275.8937099951</v>
+        <v>18579.83632</v>
       </c>
       <c r="O4" t="n">
-        <v>21291.99999999543</v>
+        <v>21220</v>
       </c>
       <c r="P4" t="n">
-        <v>21291.99999999689</v>
+        <v>21220</v>
       </c>
       <c r="Q4" t="n">
-        <v>20015.89898989677</v>
+        <v>19908.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18744.9696969686</v>
+        <v>18637.61616161616</v>
       </c>
       <c r="S4" t="n">
-        <v>17463.0404040404</v>
+        <v>17477.37878787878</v>
       </c>
       <c r="T4" t="n">
-        <v>16024.06060605997</v>
+        <v>16038.39898989897</v>
       </c>
       <c r="U4" t="n">
-        <v>14487.71717171526</v>
+        <v>14502.05555555555</v>
       </c>
       <c r="V4" t="n">
-        <v>12974.32323232249</v>
+        <v>12988.66161616162</v>
       </c>
       <c r="W4" t="n">
-        <v>11503.16161616053</v>
+        <v>11517.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10183.03030302847</v>
+        <v>10197.36868686835</v>
       </c>
       <c r="Y4" t="n">
-        <v>8933.717171708327</v>
+        <v>8948.055555555555</v>
       </c>
     </row>
     <row r="5">
@@ -6358,7 +6475,7 @@
         <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>116.5350000022445</v>
+        <v>116.5350000000001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6667,7 +6784,7 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>49.04000000050291</v>
+        <v>49.03999999999998</v>
       </c>
       <c r="I2" t="n">
         <v>100.0800000020536</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375173.553962237</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>426852.6922872484</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187210</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2487487.26277026</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
